--- a/data/financial_statements/soci/COF.xlsx
+++ b/data/financial_statements/soci/COF.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,2121 +590,2166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>11001000000</v>
+      </c>
+      <c r="C2">
         <v>10002000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8810000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8560000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8499000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8212000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7770000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7552000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7855000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>8041000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7414000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8333000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8631000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>8297000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>8454000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>8384000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8241000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>8071000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>8237000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>7828000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>7804000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>7705000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7359000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>7131000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>7128000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>6978000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>6732000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>6681000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>6617000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6304000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>6072000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>6045000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>6202000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>6029000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5865000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5773000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5960000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>6089000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>6095000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>6032000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.2944</v>
+      </c>
+      <c r="C3">
         <v>0.218</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1338</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1335</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.082</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0213</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.048</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.09370000000000001</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.08989999999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.0309</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.123</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0061</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0473</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.028</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0263</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.07099999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.056</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0475</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1193</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0977</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0948</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1042</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0931</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0674</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0772</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1069</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1087</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.1052</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0669</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0456</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0353</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0471</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0406</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.009900000000000001</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0377</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0429</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0404</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0471</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.075</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.09669999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1961000000</v>
+      </c>
+      <c r="C4">
         <v>1197000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>578000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>387000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>381000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>382000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>396000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>439000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>518000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>660000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>858000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1084000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1204000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1338000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1330000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1301000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1228000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1109000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1045000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>919000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>791000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>720000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>655000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>596000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>562000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>517000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>478000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>461000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>423000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>404000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>400000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>398000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>389000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>390000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>397000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>403000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>416000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>438000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>457000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>481000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>9040000000</v>
+      </c>
+      <c r="C5">
         <v>8805000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8232000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>8173000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8118000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7830000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>7374000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7113000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>7337000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>7381000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>6556000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7249000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7427000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>6959000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>7124000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>7083000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7013000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6962000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>7192000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>6909000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>7013000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>6985000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>6704000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>6535000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>6566000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>6461000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>6254000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>6220000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>6194000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>5900000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>5672000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>5647000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>5813000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>5639000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>5468000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5370000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>5544000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>5651000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>5638000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>5551000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>7471000000</v>
+      </c>
+      <c r="C6">
         <v>6601000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5654000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5214000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5046000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3839000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2801000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2911000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4265000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3865000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>8000000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9130000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5951000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5230000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5092000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5334000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5727000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4997000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4657000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5203000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5644000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>5339000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5153000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5364000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>5330000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4860000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4792000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4649000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4757000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>4146000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>4325000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3874000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>4270000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3848000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3547000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3524000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>4026000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3797000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3613000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3699000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1544000000</v>
+      </c>
+      <c r="C7">
         <v>2187000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2564000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2945000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3059000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3986000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4568000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4196000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3064000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3502000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-1460000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-1903000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1448000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1704000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2003000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1719000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1243000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1921000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2492000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1662000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1308000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1585000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1490000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1109000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1135000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1512000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1367000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1470000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>1334000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1648000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1236000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1663000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1420000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1661000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1785000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1703000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1352000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1693000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1858000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1675000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
         <v>49000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>42000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>95000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>35000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>55000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>56000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>71000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>79000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>98000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>1544000000</v>
+      </c>
+      <c r="C9">
         <v>2187000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2564000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2945000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3059000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3986000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4568000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4196000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3064000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3502000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-1460000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-1903000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1448000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1704000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2003000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1719000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1243000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1921000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2492000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1662000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1308000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1585000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1490000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1109000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1135000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1512000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1367000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1470000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1334000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1648000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1236000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1663000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1420000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1661000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1785000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1703000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1352000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1693000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1858000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1675000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>312000000</v>
+      </c>
+      <c r="C10">
         <v>493000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>533000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>542000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>633000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>882000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1031000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>869000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>496000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1096000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-543000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-563000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>270000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>375000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>387000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>309000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-21000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>420000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>575000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>319000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>2170000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>448000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>443000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>314000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>342000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>496000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>424000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>452000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>426000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>530000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>384000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>529000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>450000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>536000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>581000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>579000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>477000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>575000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>631000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>541000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1232000000</v>
+      </c>
+      <c r="C11">
         <v>1694000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2031000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2403000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2426000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3104000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3537000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3327000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2568000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2406000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-917000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1340000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1178000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1329000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1616000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1410000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1264000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1501000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1917000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1343000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-862000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1137000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1047000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>795000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>793000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1016000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>943000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1018000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>908000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1118000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>852000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1134000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>970000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1125000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1204000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1124000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>875000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1118000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1227000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1134000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>71000000</v>
+      </c>
+      <c r="C12">
         <v>78000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>82000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>85000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>129000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>117000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>90000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>89000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>81000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>87000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>91000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>80000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>135000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>63000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>92000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>64000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>89000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>62000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>92000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>62000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>72000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>60000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>88000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>58000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>81000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>43000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>71000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>43000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>72000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>35000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>33000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>38000000</v>
-      </c>
-      <c r="AG12">
-        <v>25000000</v>
       </c>
       <c r="AH12">
         <v>25000000</v>
       </c>
       <c r="AI12">
+        <v>25000000</v>
+      </c>
+      <c r="AJ12">
         <v>17000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>18000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>17000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>18000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>17000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>18000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1161000000</v>
+      </c>
+      <c r="C13">
         <v>1616000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1949000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2318000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2296000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2987000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3446000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3236000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2485000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2319000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-1009000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-1420000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1041000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1270000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1533000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1348000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1172000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1440000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1814000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1284000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-1043000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1047000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>948000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>752000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>710000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>962000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>871000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>970000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>848000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1079000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>830000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1115000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>974000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1056000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1177000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1136000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>835000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1087000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1091000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1038000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>4.21</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4.98</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5.65</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5.43</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6.81</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>7.65</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7.06</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5.36</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.07</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-2.21</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-3.1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.26</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2.71</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3.26</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2.87</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2.49</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3.01</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3.74</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2.64</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-2.17</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2.16</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.96</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.56</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1.47</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1.92</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1.7</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1.85</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1.6</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1.52</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2.03</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1.76</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1.89</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2.07</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1.99</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1.47</v>
-      </c>
-      <c r="AL14">
-        <v>1.89</v>
       </c>
       <c r="AM14">
         <v>1.89</v>
       </c>
       <c r="AN14">
+        <v>1.89</v>
+      </c>
+      <c r="AO14">
         <v>1.81</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>4.2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4.96</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5.62</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5.41</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6.78</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>7.62</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>7.03</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5.35</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5.06</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-2.21</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-3.1</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.25</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.69</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3.24</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.86</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.48</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.99</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3.71</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.62</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-2.17</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2.14</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1.94</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.54</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.45</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1.9</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1.69</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1.84</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.58</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.98</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1.5</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1.73</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.86</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2.04</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1.96</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.45</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1.86</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1.87</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1.79</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>382600000</v>
+      </c>
+      <c r="C16">
         <v>383400000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>391200000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>410400000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>442500000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>438800000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>450600000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>458600000</v>
-      </c>
-      <c r="I16">
-        <v>457800000</v>
       </c>
       <c r="J16">
         <v>457800000</v>
       </c>
       <c r="K16">
+        <v>457800000</v>
+      </c>
+      <c r="L16">
         <v>456700000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>457600000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>467600000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>469500000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>470800000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>469400000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>479900000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>477800000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>485100000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>486900000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>484200000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>484900000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>484000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>482300000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>504900000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>501100000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>511700000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>523500000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>541800000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>540600000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>545600000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>550200000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>563100000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>559900000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>567500000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>571000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>579700000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>582300000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>581500000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>580500000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>383700000</v>
+      </c>
+      <c r="C17">
         <v>384600000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>392600000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>412200000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>444200000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>440500000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>452300000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>460100000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>458900000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>458500000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>456700000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>457600000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>469900000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>471800000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>473000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>471600000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>483100000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>480900000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>488300000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>490800000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>488600000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>489000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>488100000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>487900000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>509800000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>505900000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>516500000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>528000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>548000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>546300000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>552000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>557200000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>571900000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>567900000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>577600000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>580300000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>587600000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>591100000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>588800000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>586300000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>0.8217</v>
+      </c>
+      <c r="C18">
         <v>0.8803</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.9344</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.9548</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.9552</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.9535</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.949</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.9419</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.9341</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.9179</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.8843</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.8699</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.8605</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.8387</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.8427</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.8448</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.851</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.8626</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.8731</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8826000000000001</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.8986</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.9066</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.911</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.9164</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.9212</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.9258999999999999</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.929</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.931</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.9361</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.9359</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.9341</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.9342</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.9373</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.9353</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.9323</v>
-      </c>
-      <c r="AJ18">
-        <v>0.9302</v>
       </c>
       <c r="AK18">
         <v>0.9302</v>
       </c>
       <c r="AL18">
+        <v>0.9302</v>
+      </c>
+      <c r="AM18">
         <v>0.9281</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.925</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.9203</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2709,1453 +2868,1480 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.1404</v>
+      </c>
+      <c r="C20">
         <v>0.2187</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.291</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.344</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3599</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.4854</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.5879</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.5556</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3901</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.4355</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-0.1969</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-0.2284</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.1678</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2054</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.2369</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.205</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.1508</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.238</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.3025</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.2123</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.1676</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.2057</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.2025</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.1555</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.1592</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.2167</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.2031</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.22</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.2016</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.2614</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.2036</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.2751</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.229</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.2755</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3043</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.295</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.2268</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.278</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.3048</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.2777</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1055</v>
+      </c>
+      <c r="C21">
         <v>0.1616</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2212</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2708</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2701</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3637</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4435</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4285</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3164</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2884</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-0.1361</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-0.1704</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1206</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.1531</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.1813</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.1608</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1422</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.1784</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2202</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.164</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-0.1336</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1359</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.1288</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.1055</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.09959999999999999</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1379</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1294</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.1452</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1282</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1712</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1367</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1844</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.157</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1752</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2007</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1968</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1401</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1785</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.179</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.1721</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>1232000000</v>
+      </c>
+      <c r="C22">
         <v>1694000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2031000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2403000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2426000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3104000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3537000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3327000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2568000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2406000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-917000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-1340000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1178000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1329000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1616000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1410000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1264000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1501000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1917000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1343000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-862000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1137000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1047000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>795000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>793000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1016000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>943000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1018000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>908000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1118000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>852000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1134000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>970000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1125000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1204000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1124000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>875000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1118000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1227000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1134000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>-1000000</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>-1000000</v>
-      </c>
-      <c r="H23">
-        <v>-2000000</v>
       </c>
       <c r="I23">
         <v>-2000000</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-2000000</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>-1000000</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>-2000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>4000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-3000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-11000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-109000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-30000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-11000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>15000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-2000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-11000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-1000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-5000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>12000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-4000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>11000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>19000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>29000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-44000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-10000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>30000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-23000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-13000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-119000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-78000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1232000000</v>
+      </c>
+      <c r="C24">
         <v>1694000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2031000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2403000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2425000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3104000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3536000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3325000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2566000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2406000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-918000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-1340000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1176000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1333000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1625000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1412000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1261000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1502000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1906000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1346000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-971000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1107000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1036000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>810000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>791000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1005000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>942000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1013000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>920000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1114000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>863000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1153000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>999000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1081000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1194000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1154000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>852000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1105000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1108000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1056000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>3.03</v>
+      </c>
+      <c r="C25">
         <v>4.21</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>4.98</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5.65</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5.53</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>6.81</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>7.65</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7.06</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5.44</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5.07</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-2.21</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-3.1</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.26</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2.7</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>3.24</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2.87</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.52</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>3.01</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>3.76</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2.63</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-1.93</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2.22</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1.98</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1.53</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.5</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1.94</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.7</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1.86</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1.57</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>2.01</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1.5</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1.7</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1.97</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>2.09</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1.94</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1.5</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1.89</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>2.08</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1.92</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>3.03</v>
+      </c>
+      <c r="C26">
         <v>4.2</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4.96</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5.62</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5.52</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6.78</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7.62</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7.03</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5.44</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5.06</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-2.21</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-3.1</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.26</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.68</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>3.22</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2.86</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.51</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.99</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3.73</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2.61</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-1.91</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>2.2</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.96</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.51</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.47</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.92</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.69</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.85</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.56</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.99</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1.48</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1.97</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1.67</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1.94</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>2.06</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1.91</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1.47</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1.86</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2.05</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>-0.0034</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>-0.0022</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.0043</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-0.0078</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>-0.0022</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-0.0042</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.01</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.02</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.0042</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-0.01</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>-0.02</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.01</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-0.22</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-0.06</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.02</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.03</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-0.01</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-0.02</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
       <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <v>-0.01</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.03</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-0.01</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.02</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.03</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.06</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-0.08</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-0.02</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.05</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-0.08</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.02</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-0.2</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>-0.0034</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>-0.0022</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.0044</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.0078</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>-0.0022</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-0.0043</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.01</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.02</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.0043</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-0.01</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>-0.02</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.01</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-0.23</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.06</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.02</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.03</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-0.01</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-0.02</v>
       </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
       <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
         <v>-0.01</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.03</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-0.01</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.02</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.03</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.06</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-0.08</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-0.02</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.05</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-0.09</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.02</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-0.2</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>3.2201</v>
+      </c>
+      <c r="C29">
         <v>4.4184</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5.1917</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5.8553</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5.8285</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7.0738</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>7.8473</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7.2503</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5.6112</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5.2556</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-2.0101</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-2.9283</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.5617</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>2.8392</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>3.4516</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>3.0081</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2.6968</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>3.1436</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>3.9291</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>2.7644</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-2.0095</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>2.2829</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>2.1405</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1.6795</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.6476</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>2.0056</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1.8409</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1.9351</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.7371</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>2.0607</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.5817</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>2.0956</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1.8079</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1.9307</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>2.104</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>2.021</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1.4867</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1.8976</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1.9054</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1.8191</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>3.2108</v>
+      </c>
+      <c r="C30">
         <v>4.4046</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5.1732</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5.8297</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5.8018</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7.0465</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>7.8178</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>7.2267</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5.605</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5.2475</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-2.0101</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-2.9283</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.5476</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2.8254</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3.4355</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2.9941</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.6817</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3.1233</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3.9033</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2.7425</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-1.99</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2.2638</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2.1225</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1.6602</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.6289</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.9866</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.8238</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.9186</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.7187</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2.0392</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.5634</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>2.0693</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.7833</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.9035</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>2.0672</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1.9886</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.461</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.8694</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.8818</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.8011</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>384600000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>392600000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>412200000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>424300000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>440500000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>452300000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>460100000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>460200000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>458500000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>456700000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>457600000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>463400000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>471800000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>473000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>471600000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>472700000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>480900000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>488300000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>490800000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>485700000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>489000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>488100000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>487900000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>489200000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>505900000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>516500000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>528000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>536300000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>546300000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>552000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>557200000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>561800000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>567900000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>577600000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>580300000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>582600000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>591100000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>588800000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>584000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4274,126 +4460,132 @@
       <c r="AN32">
         <v>0</v>
       </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.2776</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.3353</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-0.0092</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.5485</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.2379</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.5223</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.2166</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.5891</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.3553</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.5134</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.6491</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.4773</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.4112</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.4999</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.5822000000000001</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.4781</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.4152</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.4953</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.2053</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.5242</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.3982</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.5245</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.4436</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.2799</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.4719</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.3663</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.614</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.1696</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.7387</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.3878</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.3297</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.2585</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.4613</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.3003</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.5472</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.2592</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.5773</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.419</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.3929</v>
       </c>
     </row>
